--- a/data/trans_camb/P54_A_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_1_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>57,48</t>
+          <t>51,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>68,38</t>
+          <t>67,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,2</t>
+          <t>58,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61,35</t>
+          <t>64,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>58,77</t>
+          <t>55,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>64,74</t>
+          <t>65,78</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,78; 70,65</t>
+          <t>28,63; 71,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54,97; 78,57</t>
+          <t>48,14; 83,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,17; 71,64</t>
+          <t>40,85; 74,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,75; 73,18</t>
+          <t>48,53; 78,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,85; 67,98</t>
+          <t>41,06; 67,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,97; 72,67</t>
+          <t>53,5; 76,3</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>201,16%</t>
+          <t>177,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>239,28%</t>
+          <t>231,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>189,47%</t>
+          <t>184,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>193,08%</t>
+          <t>203,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>193,76%</t>
+          <t>180,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>213,45%</t>
+          <t>214,73%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>106,07; 367,03</t>
+          <t>63,78; 460,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>138,32; 424,54</t>
+          <t>104,75; 540,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>109,52; 326,9</t>
+          <t>92,38; 391,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>111,32; 320,24</t>
+          <t>108,5; 401,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>127,9; 287,16</t>
+          <t>100,49; 314,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>145,36; 315,18</t>
+          <t>125,23; 357,56</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,61</t>
+          <t>34,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,59</t>
+          <t>48,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,15</t>
+          <t>28,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,32</t>
+          <t>35,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,54</t>
+          <t>30,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,34</t>
+          <t>41,56</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,73; 57,75</t>
+          <t>-5,62; 57,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,8; 66,02</t>
+          <t>30,3; 68,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 40,86</t>
+          <t>9,48; 42,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,42; 40,9</t>
+          <t>21,55; 50,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,96; 45,98</t>
+          <t>9,73; 46,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,74; 49,77</t>
+          <t>29,32; 55,11</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>120,73%</t>
+          <t>105,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,73%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>76,4%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,27; 189,83</t>
+          <t>3,0; 199,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,45; 231,64</t>
+          <t>48,55; 262,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,65; 76,79</t>
+          <t>12,79; 84,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,08; 77,79</t>
+          <t>28,24; 106,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,94; 101,87</t>
+          <t>18,37; 107,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 111,37</t>
+          <t>44,36; 132,25</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,16</t>
+          <t>37,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>36,91</t>
+          <t>34,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,94</t>
+          <t>43,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,69</t>
+          <t>41,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,46</t>
+          <t>40,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,4</t>
+          <t>38,87</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,55; 53,98</t>
+          <t>22,35; 51,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,3; 49,8</t>
+          <t>19,98; 50,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,64; 48,88</t>
+          <t>32,28; 53,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,25; 48,25</t>
+          <t>30,68; 51,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,59; 49,67</t>
+          <t>31,45; 49,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,3; 46,19</t>
+          <t>29,98; 48,36</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>66,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,93%</t>
+          <t>78,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>75,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>78,9%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>73,09%</t>
+          <t>70,0%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>53,44; 135,02</t>
+          <t>34,18; 116,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,02; 123,75</t>
+          <t>30,42; 112,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,39; 102,58</t>
+          <t>49,24; 116,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>48,08; 100,4</t>
+          <t>47,46; 114,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,59; 110,15</t>
+          <t>50,74; 103,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,47; 100,52</t>
+          <t>48,13; 101,74</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>41,43</t>
+          <t>30,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>46,2</t>
+          <t>37,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>44,28</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>47,22</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>37,7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>42,51</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>47,21</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>42,01</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>46,74</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,92; 50,79</t>
+          <t>16,35; 42,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36,65; 54,83</t>
+          <t>24,97; 48,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,46; 51,38</t>
+          <t>32,67; 55,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>38,93; 55,14</t>
+          <t>35,78; 58,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,74; 48,9</t>
+          <t>29,03; 45,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,61; 53,47</t>
+          <t>34,47; 49,92</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>51,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>78,67%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>55,26; 117,8</t>
+          <t>24,97; 87,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>61,38; 128,42</t>
+          <t>35,26; 101,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,71; 122,96</t>
+          <t>54,82; 141,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>68,12; 130,76</t>
+          <t>59,18; 151,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,43; 111,18</t>
+          <t>47,5; 96,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>73,32; 121,89</t>
+          <t>56,62; 106,16</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>54,86</t>
+          <t>59,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>59,58</t>
+          <t>57,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>56,54</t>
+          <t>57,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>58,56</t>
+          <t>59,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>55,77</t>
+          <t>58,76</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>59,23</t>
+          <t>58,38</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>38,27; 66,02</t>
+          <t>38,57; 74,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45,56; 70,36</t>
+          <t>34,16; 71,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45,06; 66,07</t>
+          <t>41,11; 73,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>47,59; 67,94</t>
+          <t>42,71; 75,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,19; 63,45</t>
+          <t>42,66; 68,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,99; 67,09</t>
+          <t>42,88; 68,44</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>179,29%</t>
+          <t>216,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>194,71%</t>
+          <t>208,66%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>142,71%</t>
+          <t>147,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>147,81%</t>
+          <t>152,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>160,32%</t>
+          <t>184,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>170,25%</t>
+          <t>183,06%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>102,96; 290,87</t>
+          <t>108,1; 415,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>120,05; 308,24</t>
+          <t>98,58; 395,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>90,1; 215,43</t>
+          <t>74,78; 296,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>94,98; 222,11</t>
+          <t>78,67; 311,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>111,45; 219,59</t>
+          <t>110,09; 287,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>123,05; 236,47</t>
+          <t>113,92; 292,45</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>55,25</t>
+          <t>52,32</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>56,33</t>
+          <t>52,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>68,55</t>
+          <t>76,29</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>75,11</t>
+          <t>78,55</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>62,19</t>
+          <t>63,99</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>66,3</t>
+          <t>65,16</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>41,23; 68,2</t>
+          <t>34,26; 68,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>43,53; 68,51</t>
+          <t>33,74; 68,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>54,23; 80,14</t>
+          <t>60,48; 89,16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>62,69; 85,04</t>
+          <t>61,93; 90,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>51,87; 71,72</t>
+          <t>51,06; 74,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>58,07; 75,12</t>
+          <t>53,14; 76,94</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>149,16%</t>
+          <t>115,82%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>152,08%</t>
+          <t>115,23%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>315,48%</t>
+          <t>447,62%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>345,66%</t>
+          <t>460,89%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>214,63%</t>
+          <t>205,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>228,81%</t>
+          <t>208,89%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>83,2; 262,68</t>
+          <t>55,7; 230,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>90,62; 260,69</t>
+          <t>55,39; 230,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>177,43; 664,81</t>
+          <t>194,7; 1137,97</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>195,06; 676,39</t>
+          <t>207,02; 1541,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>143,77; 347,9</t>
+          <t>118,83; 350,25</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>157,26; 354,47</t>
+          <t>126,27; 373,74</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>47,88</t>
+          <t>42,59</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>51,63</t>
+          <t>47,81</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>47,69</t>
+          <t>48,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>50,04</t>
+          <t>50,95</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>47,8</t>
+          <t>45,64</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>50,79</t>
+          <t>49,45</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>41,24; 53,3</t>
+          <t>32,07; 49,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>45,88; 56,74</t>
+          <t>40,18; 54,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>42,75; 52,18</t>
+          <t>42,96; 54,21</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>44,9; 54,42</t>
+          <t>45,67; 56,76</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>44,1; 51,5</t>
+          <t>40,24; 50,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>47,19; 54,1</t>
+          <t>45,11; 54,28</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>116,88%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>126,05%</t>
+          <t>105,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>104,78%</t>
+          <t>104,94%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>109,93%</t>
+          <t>110,78%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>110,28%</t>
+          <t>100,07%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>117,17%</t>
+          <t>108,43%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>91,51; 144,39</t>
+          <t>67,07; 124,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>102,01; 153,36</t>
+          <t>80,11; 138,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>87,04; 126,09</t>
+          <t>84,82; 131,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>90,05; 129,04</t>
+          <t>90,06; 140,55</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>96,46; 127,16</t>
+          <t>82,02; 121,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>102,47; 133,31</t>
+          <t>91,2; 131,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
